--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division Two U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division Two U23_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK88"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT3" t="n">
         <v>1.57</v>
@@ -1512,7 +1512,7 @@
         <v>1.71</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>2.13</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT16" t="n">
         <v>1.57</v>
@@ -5369,7 +5369,7 @@
         <v>2.38</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>2.91</v>
@@ -6178,7 +6178,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT28" t="n">
         <v>1.88</v>
@@ -6587,7 +6587,7 @@
         <v>1.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU38" t="n">
         <v>1.28</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT39" t="n">
         <v>0.38</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -9226,7 +9226,7 @@
         <v>1.38</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT48" t="n">
         <v>1.25</v>
@@ -10644,7 +10644,7 @@
         <v>1.2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT50" t="n">
         <v>1.25</v>
@@ -10850,7 +10850,7 @@
         <v>2.38</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU51" t="n">
         <v>2.79</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.12</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT57" t="n">
         <v>2</v>
@@ -12880,7 +12880,7 @@
         <v>1.89</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU61" t="n">
         <v>2</v>
@@ -13489,7 +13489,7 @@
         <v>1.22</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.78</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT66" t="n">
         <v>0.11</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU68" t="n">
         <v>1.17</v>
@@ -14907,7 +14907,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT71" t="n">
         <v>0.38</v>
@@ -16331,7 +16331,7 @@
         <v>1.71</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.78</v>
@@ -16734,7 +16734,7 @@
         <v>1.14</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>0.75</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU82" t="n">
         <v>1.38</v>
@@ -17343,7 +17343,7 @@
         <v>1.83</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT83" t="n">
         <v>1.88</v>
@@ -18413,6 +18413,412 @@
       </c>
       <c r="BK88" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3220511</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division Two U23</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45002.625</v>
+      </c>
+      <c r="F89" t="n">
+        <v>19</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Aston Villa U21</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Southampton U21</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['44', '52']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>7</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X89" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3220513</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division Two U23</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Nottingham Forest U21</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Newcastle United U21</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['6', '18', '54']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>8</v>
+      </c>
+      <c r="S90" t="n">
+        <v>13</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division Two U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division Two U23_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['20', '22']</t>
   </si>
   <si>
@@ -677,6 +680,9 @@
   </si>
   <si>
     <t>['16', '90+4']</t>
+  </si>
+  <si>
+    <t>['43', '49', '79', '82', '88']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>-1</v>
@@ -1473,7 +1479,7 @@
         <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1563,7 +1569,7 @@
         <v>1.22</v>
       </c>
       <c r="AT3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1664,7 +1670,7 @@
         <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1855,7 +1861,7 @@
         <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2046,7 +2052,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2428,7 +2434,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2619,7 +2625,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2810,7 +2816,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3001,7 +3007,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3192,7 +3198,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3383,7 +3389,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3574,7 +3580,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3765,7 +3771,7 @@
         <v>86</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3956,7 +3962,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4046,7 +4052,7 @@
         <v>2.11</v>
       </c>
       <c r="AT16">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU16">
         <v>1.65</v>
@@ -4147,7 +4153,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4529,7 +4535,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4720,7 +4726,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -4911,7 +4917,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5102,7 +5108,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5484,7 +5490,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -5675,7 +5681,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5866,7 +5872,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6248,7 +6254,7 @@
         <v>99</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6630,7 +6636,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6821,7 +6827,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7394,7 +7400,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>-1</v>
@@ -7585,7 +7591,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7675,7 +7681,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU35">
         <v>1.61</v>
@@ -7776,7 +7782,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7967,7 +7973,7 @@
         <v>84</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8158,7 +8164,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8349,7 +8355,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8540,7 +8546,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8922,7 +8928,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9113,7 +9119,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9304,7 +9310,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9495,7 +9501,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -9686,7 +9692,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9776,7 +9782,7 @@
         <v>1.89</v>
       </c>
       <c r="AT46">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU46">
         <v>1.96</v>
@@ -10068,7 +10074,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10450,7 +10456,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10641,7 +10647,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>9</v>
@@ -10832,7 +10838,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11214,7 +11220,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>14</v>
@@ -11978,7 +11984,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12068,7 +12074,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU58">
         <v>1.16</v>
@@ -12169,7 +12175,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12551,7 +12557,7 @@
         <v>126</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12742,7 +12748,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -12933,7 +12939,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13124,7 +13130,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13315,7 +13321,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13506,7 +13512,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13697,7 +13703,7 @@
         <v>84</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14079,7 +14085,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14270,7 +14276,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14652,7 +14658,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14843,7 +14849,7 @@
         <v>84</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15034,7 +15040,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15225,7 +15231,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15315,7 +15321,7 @@
         <v>0.75</v>
       </c>
       <c r="AT75">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -15416,7 +15422,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15798,7 +15804,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15989,7 +15995,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16079,7 +16085,7 @@
         <v>2.13</v>
       </c>
       <c r="AT79">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU79">
         <v>1.62</v>
@@ -16180,7 +16186,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16371,7 +16377,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>13</v>
@@ -16562,7 +16568,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16944,7 +16950,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17135,7 +17141,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>-1</v>
@@ -17517,7 +17523,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17708,7 +17714,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17899,7 +17905,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18090,7 +18096,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18281,7 +18287,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18472,7 +18478,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18663,7 +18669,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18804,6 +18810,197 @@
         <v>9</v>
       </c>
       <c r="BK93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3220483</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45009.45833333334</v>
+      </c>
+      <c r="F94">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>67</v>
+      </c>
+      <c r="H94" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>154</v>
+      </c>
+      <c r="P94" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <v>6</v>
+      </c>
+      <c r="S94">
+        <v>10</v>
+      </c>
+      <c r="T94">
+        <v>3.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>2.25</v>
+      </c>
+      <c r="W94">
+        <v>1.2</v>
+      </c>
+      <c r="X94">
+        <v>4.15</v>
+      </c>
+      <c r="Y94">
+        <v>1.95</v>
+      </c>
+      <c r="Z94">
+        <v>1.74</v>
+      </c>
+      <c r="AA94">
+        <v>3.9</v>
+      </c>
+      <c r="AB94">
+        <v>1.22</v>
+      </c>
+      <c r="AC94">
+        <v>3.92</v>
+      </c>
+      <c r="AD94">
+        <v>3.92</v>
+      </c>
+      <c r="AE94">
+        <v>1.64</v>
+      </c>
+      <c r="AF94">
+        <v>1.01</v>
+      </c>
+      <c r="AG94">
+        <v>24</v>
+      </c>
+      <c r="AH94">
+        <v>1.1</v>
+      </c>
+      <c r="AI94">
+        <v>6.5</v>
+      </c>
+      <c r="AJ94">
+        <v>1.28</v>
+      </c>
+      <c r="AK94">
+        <v>3.21</v>
+      </c>
+      <c r="AL94">
+        <v>1.38</v>
+      </c>
+      <c r="AM94">
+        <v>2.75</v>
+      </c>
+      <c r="AN94">
+        <v>1.9</v>
+      </c>
+      <c r="AO94">
+        <v>1.19</v>
+      </c>
+      <c r="AP94">
+        <v>1.33</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>1.57</v>
+      </c>
+      <c r="AS94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>1.75</v>
+      </c>
+      <c r="AU94">
+        <v>0.97</v>
+      </c>
+      <c r="AV94">
+        <v>1.67</v>
+      </c>
+      <c r="AW94">
+        <v>2.64</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>1.63</v>
+      </c>
+      <c r="BC94">
+        <v>1.8</v>
+      </c>
+      <c r="BD94">
+        <v>2.43</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>4</v>
+      </c>
+      <c r="BG94">
+        <v>8</v>
+      </c>
+      <c r="BH94">
+        <v>2</v>
+      </c>
+      <c r="BI94">
+        <v>2</v>
+      </c>
+      <c r="BJ94">
+        <v>6</v>
+      </c>
+      <c r="BK94">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division Two U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division Two U23_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK94"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT2" t="n">
         <v>0.89</v>
@@ -1106,7 +1106,7 @@
         <v>1.22</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.89</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>0.67</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5600000000000001</v>
@@ -3745,7 +3745,7 @@
         <v>2.11</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU16" t="n">
         <v>1.65</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
         <v>0.11</v>
@@ -4557,7 +4557,7 @@
         <v>2.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU20" t="n">
         <v>2.69</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>0.88</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU23" t="n">
         <v>1.88</v>
@@ -5369,7 +5369,7 @@
         <v>2.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU24" t="n">
         <v>2.91</v>
@@ -5775,7 +5775,7 @@
         <v>0.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU26" t="n">
         <v>0.79</v>
@@ -6181,7 +6181,7 @@
         <v>1.22</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.49</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT31" t="n">
         <v>0.11</v>
@@ -7196,7 +7196,7 @@
         <v>1.89</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU33" t="n">
         <v>2.15</v>
@@ -7602,7 +7602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.61</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT36" t="n">
         <v>2</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8617,7 +8617,7 @@
         <v>1.22</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU40" t="n">
         <v>1.24</v>
@@ -8817,10 +8817,10 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.79</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="AT45" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU45" t="n">
         <v>1.03</v>
@@ -9835,7 +9835,7 @@
         <v>1.89</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10035,7 +10035,7 @@
         <v>1.2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
         <v>0.89</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT52" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU52" t="n">
         <v>1.12</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU54" t="n">
         <v>1.63</v>
@@ -11659,7 +11659,7 @@
         <v>0.6</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT55" t="n">
         <v>0.67</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU58" t="n">
         <v>1.16</v>
@@ -12471,10 +12471,10 @@
         <v>1.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU59" t="n">
         <v>1.64</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT60" t="n">
         <v>1.44</v>
@@ -13083,7 +13083,7 @@
         <v>0.75</v>
       </c>
       <c r="AT62" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU62" t="n">
         <v>1.48</v>
@@ -13286,7 +13286,7 @@
         <v>2.44</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>2.62</v>
@@ -13489,7 +13489,7 @@
         <v>1.22</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU64" t="n">
         <v>1.78</v>
@@ -13689,7 +13689,7 @@
         <v>2.4</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT65" t="n">
         <v>2</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14298,7 +14298,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT68" t="n">
         <v>0.5600000000000001</v>
@@ -14707,7 +14707,7 @@
         <v>1.22</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU70" t="n">
         <v>1.72</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT72" t="n">
         <v>2</v>
@@ -15516,10 +15516,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT74" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU74" t="n">
         <v>1.77</v>
@@ -15722,7 +15722,7 @@
         <v>0.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT76" t="n">
         <v>0.11</v>
@@ -16128,7 +16128,7 @@
         <v>2.44</v>
       </c>
       <c r="AT77" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU77" t="n">
         <v>2.61</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU78" t="n">
         <v>1.78</v>
@@ -16531,10 +16531,10 @@
         <v>1.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU79" t="n">
         <v>1.62</v>
@@ -17346,7 +17346,7 @@
         <v>2.11</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.73</v>
@@ -17549,7 +17549,7 @@
         <v>1.89</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.88</v>
@@ -17749,10 +17749,10 @@
         <v>1.71</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -18158,7 +18158,7 @@
         <v>1.22</v>
       </c>
       <c r="AT87" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU87" t="n">
         <v>1.82</v>
@@ -18358,7 +18358,7 @@
         <v>0.43</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT88" t="n">
         <v>0.67</v>
@@ -18564,7 +18564,7 @@
         <v>1.22</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU89" t="n">
         <v>1.3</v>
@@ -19579,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU94" t="n">
         <v>0.97</v>
@@ -19631,6 +19631,1021 @@
       </c>
       <c r="BK94" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3220515</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division Two U23</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Norwich City U21</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Aston Villa U21</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['9', '40', '60']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X95" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3219641</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division Two U23</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Derby County U21</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Southampton U21</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['9', '57', '90']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>6</v>
+      </c>
+      <c r="S96" t="n">
+        <v>11</v>
+      </c>
+      <c r="T96" t="n">
+        <v>4</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X96" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3220517</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division Two U23</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45019.625</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Derby County U21</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>West Bromwich Albion U21</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>6</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['2', '40', '51', '72', '86']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>8</v>
+      </c>
+      <c r="S97" t="n">
+        <v>12</v>
+      </c>
+      <c r="T97" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X97" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3220518</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division Two U23</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45019.625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Newcastle United U21</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Middlesbrough U21</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X98" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3220519</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>England Premier League 2 Division Two U23</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45019.625</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Sunderland U21</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Nottingham Forest U21</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['10', '64', '83']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>6</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>11</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League 2 Division Two U23_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League 2 Division Two U23_20222023.xlsx
@@ -19029,7 +19029,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>3220512</v>
+        <v>3220514</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -19049,182 +19049,182 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Derby County U21</t>
+          <t>West Bromwich Albion U21</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Stoke City U21</t>
+          <t>Norwich City U21</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['16', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
         <v>7</v>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>['59']</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>['47', '49', '52', '70', '74', '90']</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>3</v>
-      </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S92" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T92" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="U92" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V92" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="W92" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="X92" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="Y92" t="n">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="AA92" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB92" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AC92" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AD92" t="n">
         <v>3.75</v>
       </c>
       <c r="AE92" t="n">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="AF92" t="n">
         <v>1.01</v>
       </c>
       <c r="AG92" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AH92" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AI92" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AJ92" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AK92" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="AL92" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AM92" t="n">
-        <v>2.89</v>
+        <v>3.44</v>
       </c>
       <c r="AN92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
         <v>1.68</v>
       </c>
-      <c r="AO92" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AW92" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB92" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BC92" t="n">
-        <v>2.01</v>
-      </c>
       <c r="BD92" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BE92" t="n">
         <v>0</v>
       </c>
       <c r="BF92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG92" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BH92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ92" t="n">
         <v>9</v>
       </c>
       <c r="BK92" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -19232,7 +19232,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>3220514</v>
+        <v>3220512</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -19252,140 +19252,140 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>West Bromwich Albion U21</t>
+          <t>Derby County U21</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Norwich City U21</t>
+          <t>Stoke City U21</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N93" t="n">
+        <v>7</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['47', '49', '52', '70', '74', '90']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
         <v>3</v>
       </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>['18']</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>['16', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
-        <v>7</v>
-      </c>
       <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="n">
         <v>4</v>
       </c>
-      <c r="S93" t="n">
-        <v>11</v>
-      </c>
-      <c r="T93" t="n">
-        <v>2.88</v>
-      </c>
       <c r="U93" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V93" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="W93" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="X93" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="AA93" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AB93" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AC93" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AD93" t="n">
         <v>3.75</v>
       </c>
       <c r="AE93" t="n">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="AF93" t="n">
         <v>1.01</v>
       </c>
       <c r="AG93" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AH93" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AI93" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AJ93" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AK93" t="n">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="AL93" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AM93" t="n">
-        <v>3.44</v>
+        <v>2.89</v>
       </c>
       <c r="AN93" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AO93" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.25</v>
+        <v>0.38</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.44</v>
+        <v>0.67</v>
       </c>
       <c r="AU93" t="n">
-        <v>1.72</v>
+        <v>0.96</v>
       </c>
       <c r="AV93" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AW93" t="n">
-        <v>3.1</v>
+        <v>2.07</v>
       </c>
       <c r="AX93" t="n">
         <v>0</v>
@@ -19400,34 +19400,34 @@
         <v>0</v>
       </c>
       <c r="BB93" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BC93" t="n">
-        <v>1.68</v>
+        <v>2.01</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="BE93" t="n">
         <v>0</v>
       </c>
       <c r="BF93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG93" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BH93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI93" t="n">
         <v>4</v>
-      </c>
-      <c r="BI93" t="n">
-        <v>5</v>
       </c>
       <c r="BJ93" t="n">
         <v>9</v>
       </c>
       <c r="BK93" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
